--- a/Week6_resolved_CR_count_SCMIN.xlsx
+++ b/Week6_resolved_CR_count_SCMIN.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evagroh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devops_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E3E83F6-134D-48A1-985C-540C42AD4142}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B1AE8E-B1E4-45A5-A86D-089656685E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E0B01FC7-5A97-49C5-B925-F52FF0C88199}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E0B01FC7-5A97-49C5-B925-F52FF0C88199}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SCMIN team" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Domain</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>EP08 on NgCRS</t>
+  </si>
+  <si>
+    <t>hello team</t>
   </si>
 </sst>
 </file>
@@ -556,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E11700-05A8-43FF-855E-13EB288C4AAE}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N12" sqref="M12:N12"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -747,4 +751,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843C2FB9-2BB6-4DB6-B4AC-92A0B58F6C70}">
+  <dimension ref="C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>